--- a/SchedulingData/dynamic16/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_12.xlsx
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>76.22</v>
       </c>
       <c r="E2" t="n">
-        <v>26.7</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>68.08</v>
+        <v>63.08</v>
       </c>
       <c r="E3" t="n">
         <v>26.352</v>
@@ -500,21 +500,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.54000000000001</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>25.296</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>63.08</v>
       </c>
       <c r="D5" t="n">
-        <v>80.48</v>
+        <v>108.8</v>
       </c>
       <c r="E5" t="n">
-        <v>25.632</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>76.22</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3</v>
+        <v>128.82</v>
       </c>
       <c r="E6" t="n">
-        <v>27.16</v>
+        <v>23.368</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68.08</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>111.32</v>
+        <v>123.64</v>
       </c>
       <c r="E7" t="n">
-        <v>23.648</v>
+        <v>23.916</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>111.32</v>
+        <v>123.64</v>
       </c>
       <c r="D8" t="n">
-        <v>153.82</v>
+        <v>192.14</v>
       </c>
       <c r="E8" t="n">
-        <v>20.528</v>
+        <v>20.676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>107.6</v>
+        <v>36.92</v>
       </c>
       <c r="E9" t="n">
-        <v>22.54</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.3</v>
+        <v>128.82</v>
       </c>
       <c r="D10" t="n">
-        <v>111.02</v>
+        <v>186.6</v>
       </c>
       <c r="E10" t="n">
-        <v>24.168</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>71.64</v>
+        <v>40.8</v>
       </c>
       <c r="E11" t="n">
-        <v>26.516</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71.64</v>
+        <v>36.92</v>
       </c>
       <c r="D12" t="n">
-        <v>138.54</v>
+        <v>93.72</v>
       </c>
       <c r="E12" t="n">
-        <v>22.916</v>
+        <v>23.928</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>78.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.74</v>
+        <v>48.96</v>
       </c>
       <c r="E13" t="n">
-        <v>22.776</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80.48</v>
+        <v>186.6</v>
       </c>
       <c r="D14" t="n">
-        <v>144.98</v>
+        <v>260.02</v>
       </c>
       <c r="E14" t="n">
-        <v>22.272</v>
+        <v>15.508</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>139.74</v>
+        <v>48.96</v>
       </c>
       <c r="D15" t="n">
-        <v>199.62</v>
+        <v>118.96</v>
       </c>
       <c r="E15" t="n">
-        <v>18.408</v>
+        <v>22.404</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>107.6</v>
+        <v>260.02</v>
       </c>
       <c r="D16" t="n">
-        <v>162.94</v>
+        <v>334.08</v>
       </c>
       <c r="E16" t="n">
-        <v>19.636</v>
+        <v>11.712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>144.98</v>
+        <v>192.14</v>
       </c>
       <c r="D17" t="n">
-        <v>202.56</v>
+        <v>266.1</v>
       </c>
       <c r="E17" t="n">
-        <v>18.624</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>138.54</v>
+        <v>93.72</v>
       </c>
       <c r="D18" t="n">
-        <v>175.34</v>
+        <v>154.58</v>
       </c>
       <c r="E18" t="n">
-        <v>19.876</v>
+        <v>19.952</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>153.82</v>
+        <v>266.1</v>
       </c>
       <c r="D19" t="n">
-        <v>212.12</v>
+        <v>352.66</v>
       </c>
       <c r="E19" t="n">
-        <v>16.328</v>
+        <v>12.824</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>111.02</v>
+        <v>154.58</v>
       </c>
       <c r="D20" t="n">
-        <v>141.82</v>
+        <v>205.98</v>
       </c>
       <c r="E20" t="n">
-        <v>21.728</v>
+        <v>15.452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>141.82</v>
+        <v>352.66</v>
       </c>
       <c r="D21" t="n">
-        <v>195.42</v>
+        <v>437.26</v>
       </c>
       <c r="E21" t="n">
-        <v>18.488</v>
+        <v>9.464</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>199.62</v>
+        <v>205.98</v>
       </c>
       <c r="D22" t="n">
-        <v>264.42</v>
+        <v>269.4</v>
       </c>
       <c r="E22" t="n">
-        <v>15.528</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>212.12</v>
+        <v>437.26</v>
       </c>
       <c r="D23" t="n">
-        <v>278.4</v>
+        <v>499.66</v>
       </c>
       <c r="E23" t="n">
-        <v>12.8</v>
+        <v>5.864</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>278.4</v>
+        <v>40.8</v>
       </c>
       <c r="D24" t="n">
-        <v>350.4</v>
+        <v>100.68</v>
       </c>
       <c r="E24" t="n">
-        <v>9.720000000000001</v>
+        <v>22.252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>350.4</v>
+        <v>118.96</v>
       </c>
       <c r="D25" t="n">
-        <v>427.6</v>
+        <v>158.66</v>
       </c>
       <c r="E25" t="n">
-        <v>6.6</v>
+        <v>19.564</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>162.94</v>
+        <v>334.08</v>
       </c>
       <c r="D26" t="n">
-        <v>225.04</v>
+        <v>384.18</v>
       </c>
       <c r="E26" t="n">
-        <v>16.556</v>
+        <v>8.332000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>195.42</v>
+        <v>269.4</v>
       </c>
       <c r="D27" t="n">
-        <v>231.36</v>
+        <v>316.02</v>
       </c>
       <c r="E27" t="n">
-        <v>16.024</v>
+        <v>8.688000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>225.04</v>
+        <v>384.18</v>
       </c>
       <c r="D28" t="n">
-        <v>278.46</v>
+        <v>423.78</v>
       </c>
       <c r="E28" t="n">
-        <v>12.344</v>
+        <v>6.012</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>278.46</v>
+        <v>100.68</v>
       </c>
       <c r="D29" t="n">
-        <v>341.96</v>
+        <v>155.82</v>
       </c>
       <c r="E29" t="n">
-        <v>8.624000000000001</v>
+        <v>19.348</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>427.6</v>
+        <v>499.66</v>
       </c>
       <c r="D30" t="n">
-        <v>481.1</v>
+        <v>530.46</v>
       </c>
       <c r="E30" t="n">
-        <v>3.36</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>341.96</v>
+        <v>108.8</v>
       </c>
       <c r="D31" t="n">
-        <v>390.36</v>
+        <v>166.68</v>
       </c>
       <c r="E31" t="n">
-        <v>4.424</v>
+        <v>19.752</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>264.42</v>
+        <v>158.66</v>
       </c>
       <c r="D32" t="n">
-        <v>328.88</v>
+        <v>226.98</v>
       </c>
       <c r="E32" t="n">
-        <v>12.712</v>
+        <v>15.352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>175.34</v>
+        <v>166.68</v>
       </c>
       <c r="D33" t="n">
-        <v>274.84</v>
+        <v>233.48</v>
       </c>
       <c r="E33" t="n">
-        <v>16.496</v>
+        <v>16.672</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>202.56</v>
+        <v>233.48</v>
       </c>
       <c r="D34" t="n">
-        <v>241.94</v>
+        <v>313.26</v>
       </c>
       <c r="E34" t="n">
-        <v>15.816</v>
+        <v>12.304</v>
       </c>
     </row>
     <row r="35">
@@ -1093,242 +1093,242 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>231.36</v>
+        <v>316.02</v>
       </c>
       <c r="D35" t="n">
-        <v>295.32</v>
+        <v>368.42</v>
       </c>
       <c r="E35" t="n">
-        <v>12.228</v>
+        <v>5.568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>295.32</v>
+        <v>155.82</v>
       </c>
       <c r="D36" t="n">
-        <v>348.78</v>
+        <v>213.56</v>
       </c>
       <c r="E36" t="n">
-        <v>9.012</v>
+        <v>15.204</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>348.78</v>
+        <v>530.46</v>
       </c>
       <c r="D37" t="n">
-        <v>386.38</v>
+        <v>568.8</v>
       </c>
       <c r="E37" t="n">
-        <v>5.892</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>274.84</v>
+        <v>568.8</v>
       </c>
       <c r="D38" t="n">
-        <v>331.14</v>
+        <v>663.76</v>
       </c>
       <c r="E38" t="n">
-        <v>11.996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>331.14</v>
+        <v>226.98</v>
       </c>
       <c r="D39" t="n">
-        <v>413.54</v>
+        <v>306.78</v>
       </c>
       <c r="E39" t="n">
-        <v>8.356</v>
+        <v>12.472</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>328.88</v>
+        <v>368.42</v>
       </c>
       <c r="D40" t="n">
-        <v>379.4</v>
+        <v>426.72</v>
       </c>
       <c r="E40" t="n">
-        <v>9.279999999999999</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>379.4</v>
+        <v>426.72</v>
       </c>
       <c r="D41" t="n">
-        <v>452.76</v>
+        <v>510.58</v>
       </c>
       <c r="E41" t="n">
-        <v>6.064</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>481.1</v>
+        <v>423.78</v>
       </c>
       <c r="D42" t="n">
-        <v>556.08</v>
+        <v>488.08</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>2.712</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>556.08</v>
+        <v>306.78</v>
       </c>
       <c r="D43" t="n">
-        <v>621.6799999999999</v>
+        <v>375.08</v>
       </c>
       <c r="E43" t="n">
-        <v>25.62</v>
+        <v>8.272</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>241.94</v>
+        <v>213.56</v>
       </c>
       <c r="D44" t="n">
-        <v>308.9</v>
+        <v>296.36</v>
       </c>
       <c r="E44" t="n">
-        <v>11.76</v>
+        <v>11.044</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>308.9</v>
+        <v>296.36</v>
       </c>
       <c r="D45" t="n">
-        <v>350.82</v>
+        <v>374.7</v>
       </c>
       <c r="E45" t="n">
-        <v>9.208</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>452.76</v>
+        <v>374.7</v>
       </c>
       <c r="D46" t="n">
-        <v>522.76</v>
+        <v>439.6</v>
       </c>
       <c r="E46" t="n">
-        <v>1.684</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>522.76</v>
+        <v>439.6</v>
       </c>
       <c r="D47" t="n">
-        <v>586.39</v>
+        <v>512.48</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1336,83 +1336,83 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>586.39</v>
+        <v>512.48</v>
       </c>
       <c r="D48" t="n">
-        <v>634.87</v>
+        <v>574.5599999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>26.832</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>386.38</v>
+        <v>375.08</v>
       </c>
       <c r="D49" t="n">
-        <v>447.94</v>
+        <v>428.48</v>
       </c>
       <c r="E49" t="n">
-        <v>1.356</v>
+        <v>4.552</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>447.94</v>
+        <v>428.48</v>
       </c>
       <c r="D50" t="n">
-        <v>546.73</v>
+        <v>494.52</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>1.068</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>350.82</v>
+        <v>494.52</v>
       </c>
       <c r="D51" t="n">
-        <v>414.04</v>
+        <v>579.1799999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>4.996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1420,51 +1420,51 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>390.36</v>
+        <v>574.5599999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>461.78</v>
+        <v>626.1799999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.392</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>461.78</v>
+        <v>626.1799999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>542.9</v>
+        <v>699.58</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>634.87</v>
+        <v>510.58</v>
       </c>
       <c r="D54" t="n">
-        <v>694.4299999999999</v>
+        <v>550.36</v>
       </c>
       <c r="E54" t="n">
-        <v>23.976</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="55">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>414.04</v>
+        <v>313.26</v>
       </c>
       <c r="D55" t="n">
-        <v>464.14</v>
+        <v>384.82</v>
       </c>
       <c r="E55" t="n">
-        <v>1.616</v>
+        <v>7.768</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>464.14</v>
+        <v>488.08</v>
       </c>
       <c r="D56" t="n">
-        <v>537.8099999999999</v>
+        <v>564.66</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1507,192 +1507,192 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>621.6799999999999</v>
+        <v>564.66</v>
       </c>
       <c r="D57" t="n">
-        <v>656.1799999999999</v>
+        <v>604.66</v>
       </c>
       <c r="E57" t="n">
-        <v>23.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>413.54</v>
+        <v>550.36</v>
       </c>
       <c r="D58" t="n">
-        <v>477.44</v>
+        <v>617.76</v>
       </c>
       <c r="E58" t="n">
-        <v>5.056</v>
+        <v>24.592</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>477.44</v>
+        <v>579.1799999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>531.84</v>
+        <v>660.88</v>
       </c>
       <c r="E59" t="n">
-        <v>1.756</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>531.84</v>
+        <v>384.82</v>
       </c>
       <c r="D60" t="n">
-        <v>595.33</v>
+        <v>466.92</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>4.648</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>542.9</v>
+        <v>466.92</v>
       </c>
       <c r="D61" t="n">
-        <v>582.6799999999999</v>
+        <v>503.42</v>
       </c>
       <c r="E61" t="n">
-        <v>27.712</v>
+        <v>2.128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>537.8099999999999</v>
+        <v>604.66</v>
       </c>
       <c r="D62" t="n">
-        <v>611.63</v>
+        <v>653.84</v>
       </c>
       <c r="E62" t="n">
-        <v>25.788</v>
+        <v>23.892</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>595.33</v>
+        <v>660.88</v>
       </c>
       <c r="D63" t="n">
-        <v>664.5700000000001</v>
+        <v>720.74</v>
       </c>
       <c r="E63" t="n">
-        <v>27.216</v>
+        <v>24.104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>546.73</v>
+        <v>699.58</v>
       </c>
       <c r="D64" t="n">
-        <v>593.65</v>
+        <v>749.04</v>
       </c>
       <c r="E64" t="n">
-        <v>27.008</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>593.65</v>
+        <v>503.42</v>
       </c>
       <c r="D65" t="n">
-        <v>644.71</v>
+        <v>571.0599999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>23.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>582.6799999999999</v>
+        <v>571.0599999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>680.02</v>
+        <v>639.92</v>
       </c>
       <c r="E66" t="n">
-        <v>23.568</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="67">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>644.71</v>
+        <v>617.76</v>
       </c>
       <c r="D67" t="n">
-        <v>718.47</v>
+        <v>668.5</v>
       </c>
       <c r="E67" t="n">
-        <v>19.236</v>
+        <v>22.128</v>
       </c>
     </row>
   </sheetData>
